--- a/Documents/労金AML_ビートル設定（団体）20250712.xlsx
+++ b/Documents/労金AML_ビートル設定（団体）20250712.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.開発\01.VisualStudio\net80\労働金庫連合会\01.AML業務\管理ツール\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1FCCF-5A2A-45C3-B7E6-2652FAA173AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="-240" yWindow="315" windowWidth="21000" windowHeight="14850" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フロー" sheetId="3" r:id="rId1"/>
@@ -3271,9 +3272,6 @@
     <t>団体_50_正常納品対象_</t>
   </si>
   <si>
-    <t>団体_51_不備納品対象_</t>
-  </si>
-  <si>
     <t>団体_60_申請書仕分対象_</t>
   </si>
   <si>
@@ -3631,13 +3629,17 @@
   </si>
   <si>
     <t>BPO_人格コード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>団体_51_不備納品対象_</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -3887,6 +3889,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3905,7 +3908,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3990,10 +3992,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
             <a:t>ファイルへの変換作業あり</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t/>
           </a:r>
           <a:br>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
@@ -4277,7 +4275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4452,13 +4450,13 @@
     </row>
     <row r="23" spans="3:10">
       <c r="C23" s="6"/>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="31" t="s">
+      <c r="E23" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="32" t="s">
         <v>128</v>
       </c>
       <c r="H23" s="14" t="s">
@@ -4467,27 +4465,27 @@
     </row>
     <row r="24" spans="3:10">
       <c r="C24" s="6"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="3:10">
       <c r="C25" s="6"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="26" spans="3:10">
       <c r="C26" s="6"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="3" t="s">
         <v>145</v>
       </c>
@@ -4500,9 +4498,9 @@
     </row>
     <row r="27" spans="3:10">
       <c r="C27" s="6"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="3" t="s">
         <v>147</v>
       </c>
@@ -4619,13 +4617,13 @@
       </c>
     </row>
     <row r="46" spans="4:8">
-      <c r="D46" s="30" t="s">
+      <c r="D46" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="E46" s="31" t="s">
+      <c r="E46" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="G46" s="31" t="s">
+      <c r="G46" s="32" t="s">
         <v>128</v>
       </c>
       <c r="H46" s="3" t="s">
@@ -4633,25 +4631,25 @@
       </c>
     </row>
     <row r="47" spans="4:8">
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="G47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="3" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="4:8">
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="G48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="49" spans="4:8">
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="G49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="3" t="s">
         <v>169</v>
       </c>
@@ -4757,7 +4755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:D112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4803,7 +4801,7 @@
         <v>739</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -6001,7 +5999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6057,7 +6055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6101,7 +6099,7 @@
         <v>200</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -6112,7 +6110,7 @@
         <v>201</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -6123,7 +6121,7 @@
         <v>202</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6134,7 +6132,7 @@
         <v>228</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -6166,7 +6164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6220,7 +6218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6263,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6308,7 +6306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6365,7 +6363,7 @@
         <v>569</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -6376,7 +6374,7 @@
         <v>570</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6387,7 +6385,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -6398,7 +6396,7 @@
         <v>196</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -6409,7 +6407,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -6420,7 +6418,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -6431,7 +6429,7 @@
         <v>199</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -6442,7 +6440,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -6453,7 +6451,7 @@
         <v>201</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -6464,7 +6462,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -6475,7 +6473,7 @@
         <v>203</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -6486,7 +6484,7 @@
         <v>204</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -6497,7 +6495,7 @@
         <v>205</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -6508,7 +6506,7 @@
         <v>206</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -6519,7 +6517,7 @@
         <v>207</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -6530,7 +6528,7 @@
         <v>208</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -6541,7 +6539,7 @@
         <v>209</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -6552,7 +6550,7 @@
         <v>210</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -6563,7 +6561,7 @@
         <v>211</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -6574,7 +6572,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -6585,7 +6583,7 @@
         <v>213</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -6596,7 +6594,7 @@
         <v>214</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -6607,7 +6605,7 @@
         <v>215</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -6618,7 +6616,7 @@
         <v>216</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -6629,7 +6627,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -6640,7 +6638,7 @@
         <v>218</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -6651,7 +6649,7 @@
         <v>219</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -6662,7 +6660,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -6673,7 +6671,7 @@
         <v>221</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -6684,7 +6682,7 @@
         <v>222</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -6695,7 +6693,7 @@
         <v>223</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -6706,7 +6704,7 @@
         <v>224</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -6717,7 +6715,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -6728,7 +6726,7 @@
         <v>226</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -7926,7 +7924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7972,7 +7970,7 @@
         <v>742</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -7983,7 +7981,7 @@
         <v>743</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -7994,7 +7992,7 @@
         <v>744</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -8005,7 +8003,7 @@
         <v>745</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -8016,7 +8014,7 @@
         <v>733</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -8059,7 +8057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B2:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8114,7 +8112,7 @@
         <v>569</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -8125,7 +8123,7 @@
         <v>570</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -8136,7 +8134,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -8147,7 +8145,7 @@
         <v>196</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -8158,7 +8156,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -8169,7 +8167,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -8180,7 +8178,7 @@
         <v>199</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -8191,7 +8189,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -8202,7 +8200,7 @@
         <v>201</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -8213,7 +8211,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -8224,7 +8222,7 @@
         <v>203</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -8235,7 +8233,7 @@
         <v>204</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -8246,7 +8244,7 @@
         <v>205</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -8257,7 +8255,7 @@
         <v>206</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -8268,7 +8266,7 @@
         <v>207</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -8279,7 +8277,7 @@
         <v>208</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -8290,7 +8288,7 @@
         <v>209</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -8301,7 +8299,7 @@
         <v>210</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -8312,7 +8310,7 @@
         <v>211</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -8323,7 +8321,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -8334,7 +8332,7 @@
         <v>213</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -8345,7 +8343,7 @@
         <v>214</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -8356,7 +8354,7 @@
         <v>215</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -8367,7 +8365,7 @@
         <v>216</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -8378,7 +8376,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -8389,7 +8387,7 @@
         <v>218</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -8400,7 +8398,7 @@
         <v>219</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -8411,7 +8409,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -8422,7 +8420,7 @@
         <v>221</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -8433,7 +8431,7 @@
         <v>222</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -8444,7 +8442,7 @@
         <v>223</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -8455,7 +8453,7 @@
         <v>224</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -8466,7 +8464,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -8477,7 +8475,7 @@
         <v>226</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -9675,7 +9673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9721,7 +9719,7 @@
         <v>742</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -9732,7 +9730,7 @@
         <v>745</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -9743,7 +9741,7 @@
         <v>733</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -9764,7 +9762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10638,7 +10636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="B2:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10681,10 +10679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="15.75"/>
   <cols>
@@ -10702,12 +10700,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
@@ -10739,7 +10737,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>191</v>
       </c>
       <c r="C4" s="17">
@@ -10768,7 +10766,7 @@
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="17">
         <v>2</v>
       </c>
@@ -10795,7 +10793,7 @@
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="17">
         <v>3</v>
       </c>
@@ -10803,7 +10801,7 @@
         <v>194</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>13</v>
@@ -10822,7 +10820,7 @@
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="17">
         <v>4</v>
       </c>
@@ -10830,7 +10828,7 @@
         <v>732</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>15</v>
@@ -10849,7 +10847,7 @@
       </c>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="33"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="17">
         <v>5</v>
       </c>
@@ -10857,7 +10855,7 @@
         <v>195</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>17</v>
@@ -10876,7 +10874,7 @@
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="33"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="17">
         <v>6</v>
       </c>
@@ -10884,7 +10882,7 @@
         <v>196</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>20</v>
@@ -10903,7 +10901,7 @@
       </c>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="33"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="17">
         <v>7</v>
       </c>
@@ -10911,7 +10909,7 @@
         <v>197</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>22</v>
@@ -10930,7 +10928,7 @@
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="33"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="17">
         <v>8</v>
       </c>
@@ -10938,7 +10936,7 @@
         <v>198</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>24</v>
@@ -10957,7 +10955,7 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="33"/>
+      <c r="B12" s="34"/>
       <c r="C12" s="17">
         <v>9</v>
       </c>
@@ -10965,7 +10963,7 @@
         <v>199</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>26</v>
@@ -10984,7 +10982,7 @@
       </c>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="33"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="17">
         <v>10</v>
       </c>
@@ -10992,7 +10990,7 @@
         <v>200</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>28</v>
@@ -11011,7 +11009,7 @@
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="33"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="17">
         <v>11</v>
       </c>
@@ -11019,7 +11017,7 @@
         <v>201</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>30</v>
@@ -11038,7 +11036,7 @@
       </c>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="33"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="17">
         <v>12</v>
       </c>
@@ -11046,7 +11044,7 @@
         <v>202</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>32</v>
@@ -11065,7 +11063,7 @@
       </c>
     </row>
     <row r="16" spans="2:10">
-      <c r="B16" s="33"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="17">
         <v>13</v>
       </c>
@@ -11073,7 +11071,7 @@
         <v>203</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>34</v>
@@ -11092,7 +11090,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="17">
         <v>14</v>
       </c>
@@ -11100,7 +11098,7 @@
         <v>204</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>36</v>
@@ -11119,7 +11117,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="17">
         <v>15</v>
       </c>
@@ -11127,7 +11125,7 @@
         <v>205</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>38</v>
@@ -11146,7 +11144,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="17">
         <v>16</v>
       </c>
@@ -11154,7 +11152,7 @@
         <v>206</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>40</v>
@@ -11173,7 +11171,7 @@
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="33"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="17">
         <v>17</v>
       </c>
@@ -11181,7 +11179,7 @@
         <v>207</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>42</v>
@@ -11200,7 +11198,7 @@
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="17">
         <v>18</v>
       </c>
@@ -11208,7 +11206,7 @@
         <v>208</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>44</v>
@@ -11227,7 +11225,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="17">
         <v>19</v>
       </c>
@@ -11235,7 +11233,7 @@
         <v>209</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>46</v>
@@ -11254,7 +11252,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="33"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="17">
         <v>20</v>
       </c>
@@ -11262,7 +11260,7 @@
         <v>210</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>48</v>
@@ -11281,7 +11279,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="33"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="17">
         <v>21</v>
       </c>
@@ -11289,7 +11287,7 @@
         <v>211</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>50</v>
@@ -11308,7 +11306,7 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="33"/>
+      <c r="B25" s="34"/>
       <c r="C25" s="17">
         <v>22</v>
       </c>
@@ -11316,7 +11314,7 @@
         <v>212</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>52</v>
@@ -11335,7 +11333,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="33"/>
+      <c r="B26" s="34"/>
       <c r="C26" s="17">
         <v>23</v>
       </c>
@@ -11343,7 +11341,7 @@
         <v>213</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>54</v>
@@ -11362,7 +11360,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="33"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="17">
         <v>24</v>
       </c>
@@ -11370,7 +11368,7 @@
         <v>214</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>56</v>
@@ -11389,7 +11387,7 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="33"/>
+      <c r="B28" s="34"/>
       <c r="C28" s="17">
         <v>25</v>
       </c>
@@ -11397,7 +11395,7 @@
         <v>215</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>58</v>
@@ -11416,7 +11414,7 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="33"/>
+      <c r="B29" s="34"/>
       <c r="C29" s="17">
         <v>26</v>
       </c>
@@ -11424,7 +11422,7 @@
         <v>216</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>60</v>
@@ -11443,7 +11441,7 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="33"/>
+      <c r="B30" s="34"/>
       <c r="C30" s="17">
         <v>27</v>
       </c>
@@ -11451,7 +11449,7 @@
         <v>217</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>62</v>
@@ -11470,7 +11468,7 @@
       </c>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="33"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="17">
         <v>28</v>
       </c>
@@ -11478,7 +11476,7 @@
         <v>218</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>64</v>
@@ -11497,7 +11495,7 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="33"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="17">
         <v>29</v>
       </c>
@@ -11505,7 +11503,7 @@
         <v>219</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>66</v>
@@ -11524,7 +11522,7 @@
       </c>
     </row>
     <row r="33" spans="2:10">
-      <c r="B33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="17">
         <v>30</v>
       </c>
@@ -11532,7 +11530,7 @@
         <v>220</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>68</v>
@@ -11551,7 +11549,7 @@
       </c>
     </row>
     <row r="34" spans="2:10">
-      <c r="B34" s="33"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="17">
         <v>31</v>
       </c>
@@ -11559,7 +11557,7 @@
         <v>221</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>70</v>
@@ -11578,7 +11576,7 @@
       </c>
     </row>
     <row r="35" spans="2:10">
-      <c r="B35" s="33"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="17">
         <v>32</v>
       </c>
@@ -11586,7 +11584,7 @@
         <v>222</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>72</v>
@@ -11605,7 +11603,7 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="33"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="17">
         <v>33</v>
       </c>
@@ -11613,7 +11611,7 @@
         <v>223</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>75</v>
@@ -11632,7 +11630,7 @@
       </c>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="33"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="17">
         <v>34</v>
       </c>
@@ -11640,7 +11638,7 @@
         <v>224</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>77</v>
@@ -11659,7 +11657,7 @@
       </c>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="33"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="17">
         <v>35</v>
       </c>
@@ -11667,7 +11665,7 @@
         <v>225</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>81</v>
@@ -11686,7 +11684,7 @@
       </c>
     </row>
     <row r="39" spans="2:10">
-      <c r="B39" s="33"/>
+      <c r="B39" s="34"/>
       <c r="C39" s="17">
         <v>36</v>
       </c>
@@ -11694,7 +11692,7 @@
         <v>226</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>83</v>
@@ -11713,7 +11711,7 @@
       </c>
     </row>
     <row r="40" spans="2:10">
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="35" t="s">
         <v>227</v>
       </c>
       <c r="C40" s="19">
@@ -11723,7 +11721,7 @@
         <v>733</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>229</v>
@@ -11742,7 +11740,7 @@
       </c>
     </row>
     <row r="41" spans="2:10">
-      <c r="B41" s="34"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="19">
         <v>38</v>
       </c>
@@ -11769,7 +11767,7 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="B42" s="34"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="19">
         <v>39</v>
       </c>
@@ -11796,7 +11794,7 @@
       </c>
     </row>
     <row r="43" spans="2:10">
-      <c r="B43" s="34"/>
+      <c r="B43" s="35"/>
       <c r="C43" s="19">
         <v>40</v>
       </c>
@@ -11823,7 +11821,7 @@
       </c>
     </row>
     <row r="44" spans="2:10">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="36" t="s">
         <v>239</v>
       </c>
       <c r="C44" s="21">
@@ -11852,7 +11850,7 @@
       </c>
     </row>
     <row r="45" spans="2:10">
-      <c r="B45" s="35"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="21">
         <v>42</v>
       </c>
@@ -11879,7 +11877,7 @@
       </c>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="35"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="21">
         <v>43</v>
       </c>
@@ -11906,7 +11904,7 @@
       </c>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="35"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="21">
         <v>44</v>
       </c>
@@ -11933,7 +11931,7 @@
       </c>
     </row>
     <row r="48" spans="2:10">
-      <c r="B48" s="35"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="21">
         <v>45</v>
       </c>
@@ -11960,7 +11958,7 @@
       </c>
     </row>
     <row r="49" spans="2:10">
-      <c r="B49" s="35"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="21">
         <v>46</v>
       </c>
@@ -11987,7 +11985,7 @@
       </c>
     </row>
     <row r="50" spans="2:10">
-      <c r="B50" s="35"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="21">
         <v>47</v>
       </c>
@@ -12014,7 +12012,7 @@
       </c>
     </row>
     <row r="51" spans="2:10">
-      <c r="B51" s="35"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="21">
         <v>48</v>
       </c>
@@ -12041,7 +12039,7 @@
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="B52" s="35"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="21">
         <v>49</v>
       </c>
@@ -12068,7 +12066,7 @@
       </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="B53" s="35"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="21">
         <v>50</v>
       </c>
@@ -12095,7 +12093,7 @@
       </c>
     </row>
     <row r="54" spans="2:10">
-      <c r="B54" s="35"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="21">
         <v>51</v>
       </c>
@@ -12122,7 +12120,7 @@
       </c>
     </row>
     <row r="55" spans="2:10">
-      <c r="B55" s="35"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="21">
         <v>52</v>
       </c>
@@ -12149,7 +12147,7 @@
       </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" s="35"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="21">
         <v>53</v>
       </c>
@@ -12176,7 +12174,7 @@
       </c>
     </row>
     <row r="57" spans="2:10">
-      <c r="B57" s="35"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="21">
         <v>54</v>
       </c>
@@ -12203,7 +12201,7 @@
       </c>
     </row>
     <row r="58" spans="2:10">
-      <c r="B58" s="35"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="21">
         <v>55</v>
       </c>
@@ -12230,7 +12228,7 @@
       </c>
     </row>
     <row r="59" spans="2:10">
-      <c r="B59" s="35"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="21">
         <v>56</v>
       </c>
@@ -12257,7 +12255,7 @@
       </c>
     </row>
     <row r="60" spans="2:10">
-      <c r="B60" s="35"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="21">
         <v>57</v>
       </c>
@@ -12284,7 +12282,7 @@
       </c>
     </row>
     <row r="61" spans="2:10">
-      <c r="B61" s="35"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="21">
         <v>58</v>
       </c>
@@ -12311,7 +12309,7 @@
       </c>
     </row>
     <row r="62" spans="2:10">
-      <c r="B62" s="35"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="21">
         <v>59</v>
       </c>
@@ -12338,7 +12336,7 @@
       </c>
     </row>
     <row r="63" spans="2:10">
-      <c r="B63" s="35"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="21">
         <v>60</v>
       </c>
@@ -12365,7 +12363,7 @@
       </c>
     </row>
     <row r="64" spans="2:10">
-      <c r="B64" s="35"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="21">
         <v>61</v>
       </c>
@@ -12392,7 +12390,7 @@
       </c>
     </row>
     <row r="65" spans="2:10">
-      <c r="B65" s="35"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="21">
         <v>62</v>
       </c>
@@ -12419,7 +12417,7 @@
       </c>
     </row>
     <row r="66" spans="2:10">
-      <c r="B66" s="35"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="21">
         <v>63</v>
       </c>
@@ -12446,7 +12444,7 @@
       </c>
     </row>
     <row r="67" spans="2:10">
-      <c r="B67" s="35"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="21">
         <v>64</v>
       </c>
@@ -12473,7 +12471,7 @@
       </c>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="35"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="21">
         <v>65</v>
       </c>
@@ -12500,7 +12498,7 @@
       </c>
     </row>
     <row r="69" spans="2:10">
-      <c r="B69" s="35"/>
+      <c r="B69" s="36"/>
       <c r="C69" s="21">
         <v>66</v>
       </c>
@@ -12527,7 +12525,7 @@
       </c>
     </row>
     <row r="70" spans="2:10">
-      <c r="B70" s="35"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="21">
         <v>67</v>
       </c>
@@ -12554,7 +12552,7 @@
       </c>
     </row>
     <row r="71" spans="2:10">
-      <c r="B71" s="35"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="21">
         <v>68</v>
       </c>
@@ -12581,7 +12579,7 @@
       </c>
     </row>
     <row r="72" spans="2:10">
-      <c r="B72" s="35"/>
+      <c r="B72" s="36"/>
       <c r="C72" s="21">
         <v>69</v>
       </c>
@@ -12608,7 +12606,7 @@
       </c>
     </row>
     <row r="73" spans="2:10">
-      <c r="B73" s="35"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="21">
         <v>70</v>
       </c>
@@ -12635,7 +12633,7 @@
       </c>
     </row>
     <row r="74" spans="2:10">
-      <c r="B74" s="35"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="21">
         <v>71</v>
       </c>
@@ -12662,7 +12660,7 @@
       </c>
     </row>
     <row r="75" spans="2:10">
-      <c r="B75" s="35"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="21">
         <v>72</v>
       </c>
@@ -12689,7 +12687,7 @@
       </c>
     </row>
     <row r="76" spans="2:10">
-      <c r="B76" s="35"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="21">
         <v>73</v>
       </c>
@@ -12716,7 +12714,7 @@
       </c>
     </row>
     <row r="77" spans="2:10">
-      <c r="B77" s="35"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="21">
         <v>74</v>
       </c>
@@ -12743,7 +12741,7 @@
       </c>
     </row>
     <row r="78" spans="2:10">
-      <c r="B78" s="35"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="21">
         <v>75</v>
       </c>
@@ -12770,7 +12768,7 @@
       </c>
     </row>
     <row r="79" spans="2:10">
-      <c r="B79" s="35"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="21">
         <v>76</v>
       </c>
@@ -12797,7 +12795,7 @@
       </c>
     </row>
     <row r="80" spans="2:10">
-      <c r="B80" s="35"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="21">
         <v>77</v>
       </c>
@@ -12824,7 +12822,7 @@
       </c>
     </row>
     <row r="81" spans="2:10">
-      <c r="B81" s="35"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="21">
         <v>78</v>
       </c>
@@ -12851,7 +12849,7 @@
       </c>
     </row>
     <row r="82" spans="2:10">
-      <c r="B82" s="35"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="21">
         <v>79</v>
       </c>
@@ -12878,7 +12876,7 @@
       </c>
     </row>
     <row r="83" spans="2:10">
-      <c r="B83" s="35"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="21">
         <v>80</v>
       </c>
@@ -12905,7 +12903,7 @@
       </c>
     </row>
     <row r="84" spans="2:10">
-      <c r="B84" s="35"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="21">
         <v>81</v>
       </c>
@@ -12932,7 +12930,7 @@
       </c>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="35"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="21">
         <v>82</v>
       </c>
@@ -12959,7 +12957,7 @@
       </c>
     </row>
     <row r="86" spans="2:10">
-      <c r="B86" s="35"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="21">
         <v>83</v>
       </c>
@@ -12986,7 +12984,7 @@
       </c>
     </row>
     <row r="87" spans="2:10">
-      <c r="B87" s="35"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="21">
         <v>84</v>
       </c>
@@ -13013,7 +13011,7 @@
       </c>
     </row>
     <row r="88" spans="2:10">
-      <c r="B88" s="35"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="21">
         <v>85</v>
       </c>
@@ -13040,7 +13038,7 @@
       </c>
     </row>
     <row r="89" spans="2:10">
-      <c r="B89" s="35"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="21">
         <v>86</v>
       </c>
@@ -13067,7 +13065,7 @@
       </c>
     </row>
     <row r="90" spans="2:10">
-      <c r="B90" s="35"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="21">
         <v>87</v>
       </c>
@@ -13094,7 +13092,7 @@
       </c>
     </row>
     <row r="91" spans="2:10">
-      <c r="B91" s="35"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="21">
         <v>88</v>
       </c>
@@ -13121,7 +13119,7 @@
       </c>
     </row>
     <row r="92" spans="2:10">
-      <c r="B92" s="35"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="21">
         <v>89</v>
       </c>
@@ -13148,7 +13146,7 @@
       </c>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="35"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="21">
         <v>90</v>
       </c>
@@ -13175,7 +13173,7 @@
       </c>
     </row>
     <row r="94" spans="2:10">
-      <c r="B94" s="35"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="21">
         <v>91</v>
       </c>
@@ -13202,7 +13200,7 @@
       </c>
     </row>
     <row r="95" spans="2:10">
-      <c r="B95" s="35"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="21">
         <v>92</v>
       </c>
@@ -13229,7 +13227,7 @@
       </c>
     </row>
     <row r="96" spans="2:10">
-      <c r="B96" s="35"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="21">
         <v>93</v>
       </c>
@@ -13256,7 +13254,7 @@
       </c>
     </row>
     <row r="97" spans="2:10">
-      <c r="B97" s="35"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="21">
         <v>94</v>
       </c>
@@ -13283,7 +13281,7 @@
       </c>
     </row>
     <row r="98" spans="2:10">
-      <c r="B98" s="35"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="21">
         <v>95</v>
       </c>
@@ -13310,7 +13308,7 @@
       </c>
     </row>
     <row r="99" spans="2:10">
-      <c r="B99" s="35"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="21">
         <v>96</v>
       </c>
@@ -13337,7 +13335,7 @@
       </c>
     </row>
     <row r="100" spans="2:10">
-      <c r="B100" s="35"/>
+      <c r="B100" s="36"/>
       <c r="C100" s="21">
         <v>97</v>
       </c>
@@ -13364,7 +13362,7 @@
       </c>
     </row>
     <row r="101" spans="2:10">
-      <c r="B101" s="35"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="21">
         <v>98</v>
       </c>
@@ -13391,7 +13389,7 @@
       </c>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="35"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="21">
         <v>99</v>
       </c>
@@ -13418,7 +13416,7 @@
       </c>
     </row>
     <row r="103" spans="2:10">
-      <c r="B103" s="35"/>
+      <c r="B103" s="36"/>
       <c r="C103" s="21">
         <v>100</v>
       </c>
@@ -13445,7 +13443,7 @@
       </c>
     </row>
     <row r="104" spans="2:10">
-      <c r="B104" s="35"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="21">
         <v>101</v>
       </c>
@@ -13472,7 +13470,7 @@
       </c>
     </row>
     <row r="105" spans="2:10">
-      <c r="B105" s="35"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="21">
         <v>102</v>
       </c>
@@ -13499,7 +13497,7 @@
       </c>
     </row>
     <row r="106" spans="2:10">
-      <c r="B106" s="35"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="21">
         <v>103</v>
       </c>
@@ -13526,7 +13524,7 @@
       </c>
     </row>
     <row r="107" spans="2:10">
-      <c r="B107" s="35"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="21">
         <v>104</v>
       </c>
@@ -13553,7 +13551,7 @@
       </c>
     </row>
     <row r="108" spans="2:10">
-      <c r="B108" s="35"/>
+      <c r="B108" s="36"/>
       <c r="C108" s="21">
         <v>105</v>
       </c>
@@ -13580,7 +13578,7 @@
       </c>
     </row>
     <row r="109" spans="2:10">
-      <c r="B109" s="35"/>
+      <c r="B109" s="36"/>
       <c r="C109" s="21">
         <v>106</v>
       </c>
@@ -13607,7 +13605,7 @@
       </c>
     </row>
     <row r="110" spans="2:10">
-      <c r="B110" s="35"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="21">
         <v>107</v>
       </c>
@@ -13634,7 +13632,7 @@
       </c>
     </row>
     <row r="111" spans="2:10">
-      <c r="B111" s="35"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="21">
         <v>108</v>
       </c>
@@ -13661,7 +13659,7 @@
       </c>
     </row>
     <row r="112" spans="2:10">
-      <c r="B112" s="35"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="21">
         <v>109</v>
       </c>
@@ -13688,7 +13686,7 @@
       </c>
     </row>
     <row r="113" spans="2:10">
-      <c r="B113" s="35"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="21">
         <v>110</v>
       </c>
@@ -13715,7 +13713,7 @@
       </c>
     </row>
     <row r="114" spans="2:10">
-      <c r="B114" s="35"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="21">
         <v>111</v>
       </c>
@@ -13742,7 +13740,7 @@
       </c>
     </row>
     <row r="115" spans="2:10">
-      <c r="B115" s="35"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="21">
         <v>112</v>
       </c>
@@ -13769,7 +13767,7 @@
       </c>
     </row>
     <row r="116" spans="2:10">
-      <c r="B116" s="35"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="21">
         <v>113</v>
       </c>
@@ -13796,7 +13794,7 @@
       </c>
     </row>
     <row r="117" spans="2:10">
-      <c r="B117" s="35"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="21">
         <v>114</v>
       </c>
@@ -13823,7 +13821,7 @@
       </c>
     </row>
     <row r="118" spans="2:10">
-      <c r="B118" s="35"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="21">
         <v>115</v>
       </c>
@@ -13850,7 +13848,7 @@
       </c>
     </row>
     <row r="119" spans="2:10">
-      <c r="B119" s="35"/>
+      <c r="B119" s="36"/>
       <c r="C119" s="21">
         <v>116</v>
       </c>
@@ -13877,7 +13875,7 @@
       </c>
     </row>
     <row r="120" spans="2:10">
-      <c r="B120" s="35"/>
+      <c r="B120" s="36"/>
       <c r="C120" s="21">
         <v>117</v>
       </c>
@@ -13904,7 +13902,7 @@
       </c>
     </row>
     <row r="121" spans="2:10">
-      <c r="B121" s="35"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="21">
         <v>118</v>
       </c>
@@ -13931,7 +13929,7 @@
       </c>
     </row>
     <row r="122" spans="2:10">
-      <c r="B122" s="35"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="21">
         <v>119</v>
       </c>
@@ -13958,7 +13956,7 @@
       </c>
     </row>
     <row r="123" spans="2:10">
-      <c r="B123" s="35"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="21">
         <v>120</v>
       </c>
@@ -13985,7 +13983,7 @@
       </c>
     </row>
     <row r="124" spans="2:10">
-      <c r="B124" s="35"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="21">
         <v>121</v>
       </c>
@@ -14012,7 +14010,7 @@
       </c>
     </row>
     <row r="125" spans="2:10">
-      <c r="B125" s="35"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="21">
         <v>122</v>
       </c>
@@ -14039,7 +14037,7 @@
       </c>
     </row>
     <row r="126" spans="2:10">
-      <c r="B126" s="35"/>
+      <c r="B126" s="36"/>
       <c r="C126" s="21">
         <v>123</v>
       </c>
@@ -14066,7 +14064,7 @@
       </c>
     </row>
     <row r="127" spans="2:10">
-      <c r="B127" s="35"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="21">
         <v>124</v>
       </c>
@@ -14093,7 +14091,7 @@
       </c>
     </row>
     <row r="128" spans="2:10">
-      <c r="B128" s="35"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="21">
         <v>125</v>
       </c>
@@ -14120,7 +14118,7 @@
       </c>
     </row>
     <row r="129" spans="2:10">
-      <c r="B129" s="35"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="21">
         <v>126</v>
       </c>
@@ -14147,7 +14145,7 @@
       </c>
     </row>
     <row r="130" spans="2:10">
-      <c r="B130" s="35"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="21">
         <v>127</v>
       </c>
@@ -14174,7 +14172,7 @@
       </c>
     </row>
     <row r="131" spans="2:10">
-      <c r="B131" s="35"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="21">
         <v>128</v>
       </c>
@@ -14201,7 +14199,7 @@
       </c>
     </row>
     <row r="132" spans="2:10">
-      <c r="B132" s="35"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="21">
         <v>129</v>
       </c>
@@ -14228,7 +14226,7 @@
       </c>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="35"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="21">
         <v>130</v>
       </c>
@@ -14255,7 +14253,7 @@
       </c>
     </row>
     <row r="134" spans="2:10">
-      <c r="B134" s="35"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="21">
         <v>131</v>
       </c>
@@ -14282,7 +14280,7 @@
       </c>
     </row>
     <row r="135" spans="2:10">
-      <c r="B135" s="35"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="21">
         <v>132</v>
       </c>
@@ -14309,7 +14307,7 @@
       </c>
     </row>
     <row r="136" spans="2:10">
-      <c r="B136" s="35"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="21">
         <v>133</v>
       </c>
@@ -14336,7 +14334,7 @@
       </c>
     </row>
     <row r="137" spans="2:10">
-      <c r="B137" s="35"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="21">
         <v>134</v>
       </c>
@@ -14363,7 +14361,7 @@
       </c>
     </row>
     <row r="138" spans="2:10">
-      <c r="B138" s="35"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="21">
         <v>135</v>
       </c>
@@ -14371,7 +14369,7 @@
         <v>523</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F138" s="22" t="s">
         <v>527</v>
@@ -14390,7 +14388,7 @@
       </c>
     </row>
     <row r="139" spans="2:10">
-      <c r="B139" s="35"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="21">
         <v>136</v>
       </c>
@@ -14417,7 +14415,7 @@
       </c>
     </row>
     <row r="140" spans="2:10">
-      <c r="B140" s="35"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="21">
         <v>137</v>
       </c>
@@ -14444,7 +14442,7 @@
       </c>
     </row>
     <row r="141" spans="2:10">
-      <c r="B141" s="35"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="21">
         <v>138</v>
       </c>
@@ -14471,7 +14469,7 @@
       </c>
     </row>
     <row r="142" spans="2:10">
-      <c r="B142" s="35"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="21">
         <v>139</v>
       </c>
@@ -14498,7 +14496,7 @@
       </c>
     </row>
     <row r="143" spans="2:10">
-      <c r="B143" s="35"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="21">
         <v>140</v>
       </c>
@@ -14525,7 +14523,7 @@
       </c>
     </row>
     <row r="144" spans="2:10">
-      <c r="B144" s="35"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="21">
         <v>141</v>
       </c>
@@ -14552,7 +14550,7 @@
       </c>
     </row>
     <row r="145" spans="2:10">
-      <c r="B145" s="35"/>
+      <c r="B145" s="36"/>
       <c r="C145" s="21">
         <v>142</v>
       </c>
@@ -14579,7 +14577,7 @@
       </c>
     </row>
     <row r="146" spans="2:10">
-      <c r="B146" s="35"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="21">
         <v>143</v>
       </c>
@@ -14606,7 +14604,7 @@
       </c>
     </row>
     <row r="147" spans="2:10">
-      <c r="B147" s="35"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="21">
         <v>144</v>
       </c>
@@ -14633,7 +14631,7 @@
       </c>
     </row>
     <row r="148" spans="2:10">
-      <c r="B148" s="35"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="21">
         <v>145</v>
       </c>
@@ -14660,7 +14658,7 @@
       </c>
     </row>
     <row r="149" spans="2:10">
-      <c r="B149" s="35"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="21">
         <v>146</v>
       </c>
@@ -14687,7 +14685,7 @@
       </c>
     </row>
     <row r="150" spans="2:10">
-      <c r="B150" s="35"/>
+      <c r="B150" s="36"/>
       <c r="C150" s="21">
         <v>147</v>
       </c>
@@ -14714,7 +14712,7 @@
       </c>
     </row>
     <row r="151" spans="2:10">
-      <c r="B151" s="35"/>
+      <c r="B151" s="36"/>
       <c r="C151" s="21">
         <v>148</v>
       </c>
@@ -14775,10 +14773,10 @@
         <v>150</v>
       </c>
       <c r="D153" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="E153" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4">
@@ -14807,7 +14805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14939,7 +14937,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -14953,7 +14951,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -14967,7 +14965,7 @@
         <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -14981,7 +14979,7 @@
         <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -15003,13 +15001,13 @@
         <v>106</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -15023,7 +15021,7 @@
         <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -15037,7 +15035,7 @@
         <v>686</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -15051,7 +15049,7 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -15065,7 +15063,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -15073,13 +15071,13 @@
         <v>113</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -15089,193 +15087,193 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
-    <col min="2" max="2" width="3.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="30"/>
+    <col min="2" max="2" width="3.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" style="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="30" t="s">
         <v>746</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="30" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="30" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>598</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="30" t="s">
         <v>577</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="30" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="30" t="s">
         <v>599</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="30" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="30" t="s">
         <v>600</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="30" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="30" t="s">
         <v>603</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="30" t="s">
         <v>684</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="30" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="30" t="s">
         <v>604</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="30" t="s">
         <v>685</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="30" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="30" t="s">
         <v>605</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="30" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="30" t="s">
         <v>606</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="30" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="30" t="s">
         <v>608</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="30" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="30" t="s">
         <v>613</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="30" t="s">
+        <v>760</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="30" t="s">
+        <v>623</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="30" t="s">
+        <v>624</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="30" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>694</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="30" t="s">
+        <v>633</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="30" t="s">
+        <v>634</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>761</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="36" t="s">
-        <v>623</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="36" t="s">
-        <v>624</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="36" t="s">
-        <v>625</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="36" t="s">
-        <v>633</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>695</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="36" t="s">
-        <v>634</v>
-      </c>
-      <c r="C17" s="36" t="s">
+      <c r="D17" s="30" t="s">
         <v>762</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -15285,7 +15283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15342,7 +15340,7 @@
         <v>569</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -15353,7 +15351,7 @@
         <v>570</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -15364,7 +15362,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -15375,7 +15373,7 @@
         <v>196</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -15386,7 +15384,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -15397,7 +15395,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -15408,7 +15406,7 @@
         <v>199</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -15419,7 +15417,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -15430,7 +15428,7 @@
         <v>201</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -15441,7 +15439,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -15452,7 +15450,7 @@
         <v>203</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -15463,7 +15461,7 @@
         <v>204</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -15474,7 +15472,7 @@
         <v>205</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -15485,7 +15483,7 @@
         <v>206</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -15496,7 +15494,7 @@
         <v>207</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -15507,7 +15505,7 @@
         <v>208</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -15518,7 +15516,7 @@
         <v>209</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -15529,7 +15527,7 @@
         <v>210</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -15540,7 +15538,7 @@
         <v>211</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -15551,7 +15549,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -15562,7 +15560,7 @@
         <v>213</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -15573,7 +15571,7 @@
         <v>214</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -15584,7 +15582,7 @@
         <v>215</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -15595,7 +15593,7 @@
         <v>216</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -15606,7 +15604,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -15617,7 +15615,7 @@
         <v>218</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -15628,7 +15626,7 @@
         <v>219</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -15639,7 +15637,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -15650,7 +15648,7 @@
         <v>221</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -15661,7 +15659,7 @@
         <v>222</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -15672,7 +15670,7 @@
         <v>223</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -15683,7 +15681,7 @@
         <v>224</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -15694,7 +15692,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -15705,7 +15703,7 @@
         <v>226</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
@@ -15715,7 +15713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15761,7 +15759,7 @@
         <v>733</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -15793,7 +15791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15839,7 +15837,7 @@
         <v>733</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -15871,7 +15869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Documents/労金AML_ビートル設定（団体）20250712.xlsx
+++ b/Documents/労金AML_ビートル設定（団体）20250712.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.VisualStudio\ろうきん\AML業務\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D1FCCF-5A2A-45C3-B7E6-2652FAA173AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301E0931-65CA-420F-8AFE-7208532E5873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="315" windowWidth="21000" windowHeight="14850" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="180" windowWidth="21000" windowHeight="14850" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フロー" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="846">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -3230,9 +3230,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>団体_31_不備状対象_</t>
-  </si>
-  <si>
     <t>団体_35_不備状発送_</t>
   </si>
   <si>
@@ -3269,12 +3266,6 @@
     <t>団体_33_不備状丁合結果_</t>
   </si>
   <si>
-    <t>団体_50_正常納品対象_</t>
-  </si>
-  <si>
-    <t>団体_60_申請書仕分対象_</t>
-  </si>
-  <si>
     <t>団体_40_審査結果正常_</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3632,7 +3623,11 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>団体_51_不備納品対象_</t>
+    <t>団体_60_申請書仕分対象_</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>団体_50_正常納品対象_</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4801,7 +4796,7 @@
         <v>739</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -6099,7 +6094,7 @@
         <v>200</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -6110,7 +6105,7 @@
         <v>201</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -6121,7 +6116,7 @@
         <v>202</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6132,7 +6127,7 @@
         <v>228</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -6363,7 +6358,7 @@
         <v>569</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -6374,7 +6369,7 @@
         <v>570</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6385,7 +6380,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -6396,7 +6391,7 @@
         <v>196</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -6407,7 +6402,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -6418,7 +6413,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -6429,7 +6424,7 @@
         <v>199</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -6440,7 +6435,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -6451,7 +6446,7 @@
         <v>201</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -6462,7 +6457,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -6473,7 +6468,7 @@
         <v>203</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -6484,7 +6479,7 @@
         <v>204</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -6495,7 +6490,7 @@
         <v>205</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -6506,7 +6501,7 @@
         <v>206</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -6517,7 +6512,7 @@
         <v>207</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -6528,7 +6523,7 @@
         <v>208</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -6539,7 +6534,7 @@
         <v>209</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -6550,7 +6545,7 @@
         <v>210</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -6561,7 +6556,7 @@
         <v>211</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -6572,7 +6567,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -6583,7 +6578,7 @@
         <v>213</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -6594,7 +6589,7 @@
         <v>214</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -6605,7 +6600,7 @@
         <v>215</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -6616,7 +6611,7 @@
         <v>216</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -6627,7 +6622,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -6638,7 +6633,7 @@
         <v>218</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -6649,7 +6644,7 @@
         <v>219</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -6660,7 +6655,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -6671,7 +6666,7 @@
         <v>221</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -6682,7 +6677,7 @@
         <v>222</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -6693,7 +6688,7 @@
         <v>223</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -6704,7 +6699,7 @@
         <v>224</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -6715,7 +6710,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -6726,7 +6721,7 @@
         <v>226</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -7970,7 +7965,7 @@
         <v>742</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -7981,7 +7976,7 @@
         <v>743</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -7992,7 +7987,7 @@
         <v>744</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -8003,7 +7998,7 @@
         <v>745</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -8014,7 +8009,7 @@
         <v>733</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -8112,7 +8107,7 @@
         <v>569</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -8123,7 +8118,7 @@
         <v>570</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -8134,7 +8129,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -8145,7 +8140,7 @@
         <v>196</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -8156,7 +8151,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -8167,7 +8162,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -8178,7 +8173,7 @@
         <v>199</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -8189,7 +8184,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -8200,7 +8195,7 @@
         <v>201</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -8211,7 +8206,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -8222,7 +8217,7 @@
         <v>203</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -8233,7 +8228,7 @@
         <v>204</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -8244,7 +8239,7 @@
         <v>205</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -8255,7 +8250,7 @@
         <v>206</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -8266,7 +8261,7 @@
         <v>207</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -8277,7 +8272,7 @@
         <v>208</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -8288,7 +8283,7 @@
         <v>209</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -8299,7 +8294,7 @@
         <v>210</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -8310,7 +8305,7 @@
         <v>211</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -8321,7 +8316,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -8332,7 +8327,7 @@
         <v>213</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -8343,7 +8338,7 @@
         <v>214</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -8354,7 +8349,7 @@
         <v>215</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -8365,7 +8360,7 @@
         <v>216</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -8376,7 +8371,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -8387,7 +8382,7 @@
         <v>218</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -8398,7 +8393,7 @@
         <v>219</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -8409,7 +8404,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -8420,7 +8415,7 @@
         <v>221</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -8431,7 +8426,7 @@
         <v>222</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -8442,7 +8437,7 @@
         <v>223</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -8453,7 +8448,7 @@
         <v>224</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -8464,7 +8459,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -8475,7 +8470,7 @@
         <v>226</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -9719,7 +9714,7 @@
         <v>742</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -9730,7 +9725,7 @@
         <v>745</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -9741,7 +9736,7 @@
         <v>733</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -10801,7 +10796,7 @@
         <v>194</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>13</v>
@@ -10828,7 +10823,7 @@
         <v>732</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>15</v>
@@ -10855,7 +10850,7 @@
         <v>195</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>17</v>
@@ -10882,7 +10877,7 @@
         <v>196</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>20</v>
@@ -10909,7 +10904,7 @@
         <v>197</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>22</v>
@@ -10936,7 +10931,7 @@
         <v>198</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>24</v>
@@ -10963,7 +10958,7 @@
         <v>199</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F12" s="18" t="s">
         <v>26</v>
@@ -10990,7 +10985,7 @@
         <v>200</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F13" s="18" t="s">
         <v>28</v>
@@ -11017,7 +11012,7 @@
         <v>201</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F14" s="18" t="s">
         <v>30</v>
@@ -11044,7 +11039,7 @@
         <v>202</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F15" s="18" t="s">
         <v>32</v>
@@ -11071,7 +11066,7 @@
         <v>203</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>34</v>
@@ -11098,7 +11093,7 @@
         <v>204</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>36</v>
@@ -11125,7 +11120,7 @@
         <v>205</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F18" s="18" t="s">
         <v>38</v>
@@ -11152,7 +11147,7 @@
         <v>206</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>40</v>
@@ -11179,7 +11174,7 @@
         <v>207</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>42</v>
@@ -11206,7 +11201,7 @@
         <v>208</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>44</v>
@@ -11233,7 +11228,7 @@
         <v>209</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>46</v>
@@ -11260,7 +11255,7 @@
         <v>210</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>48</v>
@@ -11287,7 +11282,7 @@
         <v>211</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>50</v>
@@ -11314,7 +11309,7 @@
         <v>212</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>52</v>
@@ -11341,7 +11336,7 @@
         <v>213</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F26" s="18" t="s">
         <v>54</v>
@@ -11368,7 +11363,7 @@
         <v>214</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>56</v>
@@ -11395,7 +11390,7 @@
         <v>215</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>58</v>
@@ -11422,7 +11417,7 @@
         <v>216</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>60</v>
@@ -11449,7 +11444,7 @@
         <v>217</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>62</v>
@@ -11476,7 +11471,7 @@
         <v>218</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>64</v>
@@ -11503,7 +11498,7 @@
         <v>219</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>66</v>
@@ -11530,7 +11525,7 @@
         <v>220</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>68</v>
@@ -11557,7 +11552,7 @@
         <v>221</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>70</v>
@@ -11584,7 +11579,7 @@
         <v>222</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>72</v>
@@ -11611,7 +11606,7 @@
         <v>223</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>75</v>
@@ -11638,7 +11633,7 @@
         <v>224</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>77</v>
@@ -11665,7 +11660,7 @@
         <v>225</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F38" s="18" t="s">
         <v>81</v>
@@ -11692,7 +11687,7 @@
         <v>226</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>83</v>
@@ -11721,7 +11716,7 @@
         <v>733</v>
       </c>
       <c r="E40" s="20" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>229</v>
@@ -14369,7 +14364,7 @@
         <v>523</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F138" s="22" t="s">
         <v>527</v>
@@ -14773,10 +14768,10 @@
         <v>150</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4">
@@ -14881,7 +14876,7 @@
         <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="2:6">
@@ -14909,7 +14904,7 @@
         <v>98</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -14923,7 +14918,7 @@
         <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -14937,7 +14932,7 @@
         <v>101</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="12" spans="2:6">
@@ -14951,7 +14946,7 @@
         <v>97</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -14965,7 +14960,7 @@
         <v>103</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -14979,7 +14974,7 @@
         <v>104</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="15" spans="2:6">
@@ -14993,7 +14988,7 @@
         <v>692</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="2:6">
@@ -15001,13 +14996,13 @@
         <v>106</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -15021,7 +15016,7 @@
         <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="18" spans="2:6">
@@ -15035,7 +15030,7 @@
         <v>686</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -15049,7 +15044,7 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="20" spans="2:6">
@@ -15063,7 +15058,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -15071,13 +15066,13 @@
         <v>113</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -15091,7 +15086,7 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -15119,7 +15114,7 @@
         <v>95</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -15141,7 +15136,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -15152,7 +15147,7 @@
         <v>102</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -15163,7 +15158,7 @@
         <v>684</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -15174,7 +15169,7 @@
         <v>685</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -15185,7 +15180,7 @@
         <v>691</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -15196,7 +15191,7 @@
         <v>105</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -15207,7 +15202,7 @@
         <v>687</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -15215,10 +15210,10 @@
         <v>613</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -15229,7 +15224,7 @@
         <v>108</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>757</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -15240,7 +15235,7 @@
         <v>110</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -15251,7 +15246,7 @@
         <v>694</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -15262,7 +15257,7 @@
         <v>695</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>758</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -15270,10 +15265,10 @@
         <v>634</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -15340,7 +15335,7 @@
         <v>569</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -15351,7 +15346,7 @@
         <v>570</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -15362,7 +15357,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -15373,7 +15368,7 @@
         <v>196</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -15384,7 +15379,7 @@
         <v>197</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -15395,7 +15390,7 @@
         <v>198</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -15406,7 +15401,7 @@
         <v>199</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -15417,7 +15412,7 @@
         <v>200</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -15428,7 +15423,7 @@
         <v>201</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -15439,7 +15434,7 @@
         <v>202</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -15450,7 +15445,7 @@
         <v>203</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -15461,7 +15456,7 @@
         <v>204</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -15472,7 +15467,7 @@
         <v>205</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -15483,7 +15478,7 @@
         <v>206</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -15494,7 +15489,7 @@
         <v>207</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -15505,7 +15500,7 @@
         <v>208</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -15516,7 +15511,7 @@
         <v>209</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -15527,7 +15522,7 @@
         <v>210</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -15538,7 +15533,7 @@
         <v>211</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -15549,7 +15544,7 @@
         <v>212</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -15560,7 +15555,7 @@
         <v>213</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -15571,7 +15566,7 @@
         <v>214</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -15582,7 +15577,7 @@
         <v>215</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -15593,7 +15588,7 @@
         <v>216</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -15604,7 +15599,7 @@
         <v>217</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -15615,7 +15610,7 @@
         <v>218</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -15626,7 +15621,7 @@
         <v>219</v>
       </c>
       <c r="D31" s="29" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -15637,7 +15632,7 @@
         <v>220</v>
       </c>
       <c r="D32" s="29" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -15648,7 +15643,7 @@
         <v>221</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -15659,7 +15654,7 @@
         <v>222</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -15670,7 +15665,7 @@
         <v>223</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -15681,7 +15676,7 @@
         <v>224</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -15692,7 +15687,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="29" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -15703,7 +15698,7 @@
         <v>226</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -15759,7 +15754,7 @@
         <v>733</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -15837,7 +15832,7 @@
         <v>733</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="2:4">
